--- a/biology/Botanique/Président_(arbre)/Président_(arbre).xlsx
+++ b/biology/Botanique/Président_(arbre)/Président_(arbre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9sident_(arbre)</t>
+          <t>Président_(arbre)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Président (en anglais : President Tree) est un séquoia géant situé dans la Giant Forest du parc national de Sequoia, en Californie, dans le sud-ouest des États-Unis.
-Avec 75 m de hauteur, il n'est pas le plus haut des séquoias. Il n'est pas non plus le plus volumineux: son volume total est estimé à 1 278 m3, ce qui le place en troisième position derrière le General Sherman et le General Grant[1]. Il est toutefois connu comme le plus vieux des séquoias vivants: il serait âgé de 3 240 ans[2].
+Avec 75 m de hauteur, il n'est pas le plus haut des séquoias. Il n'est pas non plus le plus volumineux: son volume total est estimé à 1 278 m3, ce qui le place en troisième position derrière le General Sherman et le General Grant. Il est toutefois connu comme le plus vieux des séquoias vivants: il serait âgé de 3 240 ans.
 Le Président a reçu ce nom en 1923 en l'honneur du président Warren Harding.
 </t>
         </is>
